--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_20_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_20_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-91972.95867545136</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27049826.7140035</v>
+        <v>26816724.8374038</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5.300365916305273e-11</v>
+        <v>84804.63106206035</v>
       </c>
     </row>
     <row r="11">
@@ -25877,49 +25879,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>408.4176323798642</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>314.5592583510934</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>113.3019575056797</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>65.61016771286884</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>65.01946517481471</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>56.4339664610682</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>42.00059636060509</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>39.65094179247474</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>46.19673452270656</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>62.08001639703511</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>78.24807792626756</v>
       </c>
       <c r="R44" t="n">
-        <v>140.1305995791859</v>
+        <v>101.5931080396651</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>150.8683890471842</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>218.5800195278046</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>253.1461226235864</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25956,49 +25958,49 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>118.5309706766818</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>84.24424724889813</v>
       </c>
       <c r="I45" t="n">
-        <v>64.689547</v>
+        <v>53.38798903266146</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>51.43211845760855</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>36.59190862205906</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>18.78854721703357</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>9.216293543178466</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>14.58875442338393</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>24.40218892352032</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>49.08744703089221</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69167757657658</v>
+        <v>74.31144132362824</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>127.4842877824192</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830806</v>
+        <v>173.8908995719998</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>207.940916554449</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26035,49 +26037,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>166.2963203660406</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>151.4770496226014</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>123.4876772080058</v>
       </c>
       <c r="J46" t="n">
-        <v>82.54702393560747</v>
+        <v>63.09087915316801</v>
       </c>
       <c r="K46" t="n">
-        <v>83.85861781084799</v>
+        <v>51.88619524178843</v>
       </c>
       <c r="L46" t="n">
-        <v>87.67503958280489</v>
+        <v>46.76134641422896</v>
       </c>
       <c r="M46" t="n">
-        <v>90.30175956594327</v>
+        <v>47.16400664275908</v>
       </c>
       <c r="N46" t="n">
-        <v>82.99560390240157</v>
+        <v>40.88357032611205</v>
       </c>
       <c r="O46" t="n">
-        <v>89.9967499936978</v>
+        <v>51.0994709558466</v>
       </c>
       <c r="P46" t="n">
-        <v>89.52320263194594</v>
+        <v>56.23986070246484</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.47825105913979</v>
+        <v>75.43459031707346</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>110.2883016938921</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>195.9920595939172</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>232.1860366962762</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>282.5693933134903</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>146854.1822578152</v>
       </c>
     </row>
   </sheetData>
@@ -26353,7 +26355,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>16317.13136197947</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>101571.5731262354</v>
       </c>
     </row>
     <row r="4">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3326.833140245338</v>
       </c>
     </row>
     <row r="6">
@@ -26561,7 +26563,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-88581.27490450122</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>152.6070247818962</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>152.6070247818962</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.6134955770126478</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.282961578080781</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>23.65178823278013</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>52.06967022947726</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>78.03893800442265</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>96.8142032694235</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>107.7244552371222</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>109.4675495453094</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>103.3671029013898</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>88.22143084389009</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>66.25062049212461</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>38.53749153952077</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.98003046117572</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.685576888372867</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.04907964616101181</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.3282490721723806</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.170194986506939</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>11.30155796733854</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>31.01233887572479</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>53.00502671127429</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>71.27179963988466</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>83.17082850613345</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>78.09880446550495</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>62.68117589579433</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>41.90070612502178</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>20.38023625294834</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>6.097082546710663</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.323074111080779</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.02159533369555136</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.2751929955083374</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.446715905519584</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>8.275803901287096</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>19.45614478243946</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>31.97242256905956</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>40.91369316857593</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>43.13775292318419</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>42.11203357628952</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>38.89727903785121</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>33.2833419294811</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>23.04366074206633</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>12.3736777798567</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>4.795863385358934</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.175824617171987</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.01501052702772751</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_20_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_20_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91972.95867545136</v>
+        <v>-107077.3801385853</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26816724.8374038</v>
+        <v>27049826.7140035</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84804.63106206035</v>
+        <v>-5.300365916305273e-11</v>
       </c>
     </row>
     <row r="11">
@@ -25879,49 +25879,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4176323798642</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>314.5592583510934</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>113.3019575056797</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
-        <v>65.61016771286884</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>65.01946517481471</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
-        <v>56.4339664610682</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>42.00059636060509</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N44" t="n">
-        <v>39.65094179247474</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>46.19673452270656</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
-        <v>62.08001639703511</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.24807792626756</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
-        <v>101.5931080396651</v>
+        <v>140.1305995791859</v>
       </c>
       <c r="S44" t="n">
-        <v>150.8683890471842</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>218.5800195278046</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1461226235864</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25958,49 +25958,49 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.5309706766818</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>84.24424724889813</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>53.38798903266146</v>
+        <v>64.689547</v>
       </c>
       <c r="J45" t="n">
-        <v>51.43211845760855</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>36.59190862205906</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>18.78854721703357</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>9.216293543178466</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>14.58875442338393</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>24.40218892352032</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.08744703089221</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
-        <v>74.31144132362824</v>
+        <v>94.69167757657658</v>
       </c>
       <c r="S45" t="n">
-        <v>127.4842877824192</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>173.8908995719998</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>207.940916554449</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26037,49 +26037,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2963203660406</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>151.4770496226014</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>123.4876772080058</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
-        <v>63.09087915316801</v>
+        <v>82.54702393560747</v>
       </c>
       <c r="K46" t="n">
-        <v>51.88619524178843</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L46" t="n">
-        <v>46.76134641422896</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M46" t="n">
-        <v>47.16400664275908</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N46" t="n">
-        <v>40.88357032611205</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O46" t="n">
-        <v>51.0994709558466</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P46" t="n">
-        <v>56.23986070246484</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q46" t="n">
-        <v>75.43459031707346</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R46" t="n">
-        <v>110.2883016938921</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>195.9920595939172</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>232.1860366962762</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5693933134903</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146854.1822578152</v>
+        <v>-4.583853296935558e-12</v>
       </c>
     </row>
   </sheetData>
@@ -26355,7 +26355,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>16317.13136197947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>101571.5731262354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3326.833140245338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-35430.92178093357</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-35430.92178093357</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-35430.92178093357</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1803.321780933568</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1803.321780933568</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1803.321780933568</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-1803.321780933568</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-1803.321780933568</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-1803.321780933568</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-1803.321780933568</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-1803.321780933568</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-1803.321780933568</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-1803.321780933568</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-1803.321780933568</v>
       </c>
       <c r="P6" t="n">
-        <v>-88581.27490450122</v>
+        <v>-1803.321780933568</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>152.6070247818962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>152.6070247818962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6134955770126478</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.282961578080781</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>23.65178823278013</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.06967022947726</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>78.03893800442265</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>96.8142032694235</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>107.7244552371222</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>109.4675495453094</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>103.3671029013898</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>88.22143084389009</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>66.25062049212461</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>38.53749153952077</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.98003046117572</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.685576888372867</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04907964616101181</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3282490721723806</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>3.170194986506939</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>11.30155796733854</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>31.01233887572479</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>53.00502671127429</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>71.27179963988466</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>83.17082850613345</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>78.09880446550495</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>62.68117589579433</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.90070612502178</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.38023625294834</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>6.097082546710663</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.323074111080779</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02159533369555136</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2751929955083374</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.446715905519584</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>8.275803901287096</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.45614478243946</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>31.97242256905956</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>40.91369316857593</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>43.13775292318419</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>42.11203357628952</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>38.89727903785121</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>33.2833419294811</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.04366074206633</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>12.3736777798567</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>4.795863385358934</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.175824617171987</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01501052702772751</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
